--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431219.7026574528</v>
+        <v>373219.4747124192</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3460359.47633303</v>
+        <v>3460359.476333028</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9945764.158652186</v>
+        <v>9945764.15865219</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8298980.374369167</v>
+        <v>8298980.374369168</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.03086847505746</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>247.9798646575099</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -749,7 +749,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -806,7 +806,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>132.9897430948735</v>
+        <v>186.9923164203357</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11.57315202520368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185104</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.9302978625242</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>182.1104857035556</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -986,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1040,10 +1040,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>142.1293085401824</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>109.7129576363817</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>330.1809428419441</v>
       </c>
       <c r="X8" t="n">
-        <v>105.1703703335638</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>7.431982368242488</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>37.76353774383359</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>226.6536928280251</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>160.2986977425834</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U11" t="n">
         <v>252.2485119289662</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>289.2705010681411</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>93.25618027801065</v>
       </c>
       <c r="I12" t="n">
-        <v>47.44140341235616</v>
+        <v>47.44140341235613</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>22.65662649196446</v>
       </c>
       <c r="S12" t="n">
-        <v>140.3430023016687</v>
+        <v>140.343002301669</v>
       </c>
       <c r="T12" t="n">
         <v>184.4267576030784</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>87.38007950901387</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7372916523364</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>127.9273557308777</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>202.9764972519466</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>95.3565077326965</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2914320525097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>217.0743199445593</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>160.2986977425834</v>
       </c>
       <c r="T14" t="n">
-        <v>88.18987468654696</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>93.25618027801065</v>
       </c>
       <c r="I15" t="n">
-        <v>47.44140341235616</v>
+        <v>47.44140341235613</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.9140417862385</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.1090091183038</v>
       </c>
       <c r="H16" t="n">
-        <v>153.3933934536531</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.7396003621027</v>
       </c>
       <c r="U16" t="n">
         <v>284.2914320525097</v>
@@ -1846,16 +1846,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>25.09206124750019</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>160.2986977425834</v>
       </c>
       <c r="T17" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>101.048250859019</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.1090091183038</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>108.7206580832448</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.7396003621027</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.2914320525097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>99.89507254136062</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.843309253108</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>318.2313998568816</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>128.6952548893941</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>160.2986977425834</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>32.37334536557291</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2219,7 +2219,7 @@
         <v>216.271136721537</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261489</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>49.15546940358936</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7372916523364</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2914320525097</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.8093073989286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>60.67948259022528</v>
       </c>
       <c r="G23" t="n">
-        <v>217.0688689385669</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.2313998568816</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>128.6952548893941</v>
@@ -2374,19 +2374,19 @@
         <v>217.30169396853</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2485119289662</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>69.23014445601363</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>127.9273557308777</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>284.2914320525097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.7206580832448</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>80.18165393839784</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>128.6952548893941</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>160.2986977425834</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>353.84725133051</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.29528959617941</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.57072303024466</v>
       </c>
       <c r="H28" t="n">
-        <v>153.3933934536531</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.9764972519466</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.7396003621027</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2914320525097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>47.40209140401398</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>82.79291717284396</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>108.7206580832448</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.38762539695502</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>284.2914320525097</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -3031,25 +3031,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>188.5101332122909</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>128.6952548893941</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>14.07610150028947</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.40383695963143</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.9086700168284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>410.843309253108</v>
       </c>
       <c r="H35" t="n">
-        <v>318.2313998568816</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U35" t="n">
-        <v>206.9961452057912</v>
+        <v>187.7041067711329</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>46.71792437441695</v>
       </c>
       <c r="G37" t="n">
         <v>166.7372916523364</v>
@@ -3444,10 +3444,10 @@
         <v>153.3933934536531</v>
       </c>
       <c r="I37" t="n">
-        <v>127.9273557308777</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.58322001007976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.807671392453839</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2914320525097</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>19.01392538869085</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>410.843309253108</v>
       </c>
       <c r="H38" t="n">
-        <v>318.2313998568816</v>
+        <v>26.7959616659415</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6952548893941</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2485119289662</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>119.7587349638283</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>108.7206580832448</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>284.2914320525097</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -3754,13 +3754,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.843309253108</v>
+        <v>68.54354579400085</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1680469947447</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6952548893941</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S41" t="n">
-        <v>160.2986977425834</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>12.06084694335186</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>64.81851114359721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8478230734767</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>258.0158467480193</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.843309253108</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>134.7386625477781</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>128.6952548893941</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.65680409986936</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>160.2986977425834</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.277473073172345</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.1090091183038</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.7396003621027</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2914320525097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.5512034248009</v>
+        <v>1295.581343903307</v>
       </c>
       <c r="C2" t="n">
-        <v>913.5512034248009</v>
+        <v>1295.581343903307</v>
       </c>
       <c r="D2" t="n">
-        <v>913.5512034248009</v>
+        <v>1295.581343903307</v>
       </c>
       <c r="E2" t="n">
-        <v>518.7654835309077</v>
+        <v>1295.581343903307</v>
       </c>
       <c r="F2" t="n">
-        <v>458.1282426470112</v>
+        <v>881.4301532134778</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>465.3261666676657</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
         <v>702.0485455037335</v>
@@ -4372,10 +4372,10 @@
         <v>1689.624883421327</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.59474294282</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.59474294282</v>
+        <v>1689.624883421327</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F3" t="n">
         <v>339.0728988411556</v>
@@ -4409,19 +4409,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>252.8463055811703</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L3" t="n">
-        <v>252.8463055811703</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O3" t="n">
         <v>1641.34525599867</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1882.718012658271</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1654.322390106605</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1413.006521339915</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1215.08953321771</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>624.9395457940723</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="C4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="D4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="E4" t="n">
         <v>1569.153559814029</v>
@@ -4509,31 +4509,31 @@
         <v>2101.212805059961</v>
       </c>
       <c r="Q4" t="n">
-        <v>2062.675463713651</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R4" t="n">
-        <v>1913.153682328029</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S4" t="n">
-        <v>1699.443919731716</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T4" t="n">
-        <v>1569.153559814029</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="U4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="V4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="X4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.153559814029</v>
+        <v>1580.84361236474</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.8414548924032</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="C5" t="n">
-        <v>214.8414548924032</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="D5" t="n">
-        <v>214.8414548924032</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="E5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4594,25 +4594,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>1876.853858790972</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U5" t="n">
-        <v>1621.968522504967</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V5" t="n">
-        <v>1284.989248400908</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W5" t="n">
-        <v>922.4543182585089</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X5" t="n">
-        <v>922.4543182585089</v>
+        <v>1730.033844131168</v>
       </c>
       <c r="Y5" t="n">
-        <v>528.9124628343469</v>
+        <v>1336.491988707006</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4649,13 +4649,13 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N6" t="n">
         <v>1249.145305214519</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1912.527701225946</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1694.032908824257</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1465.63728627259</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1224.321417505901</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>1224.321417505901</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>152.8454254308777</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W7" t="n">
         <v>42.02425610119923</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.9926455822329</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="C8" t="n">
-        <v>628.9926455822329</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="D8" t="n">
-        <v>628.9926455822329</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="E8" t="n">
-        <v>628.9926455822329</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F8" t="n">
-        <v>214.8414548924032</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1689.624883421327</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1434.739547135321</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.760273031262</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="W8" t="n">
-        <v>735.225342888863</v>
+        <v>1234.944103019411</v>
       </c>
       <c r="X8" t="n">
-        <v>628.9926455822329</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="Y8" t="n">
-        <v>628.9926455822329</v>
+        <v>852.9139625409043</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>189.1203796867518</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>554.9422248568675</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1039.975578367094</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.241224490216</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4913,22 +4913,22 @@
         <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1948.413318072701</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4992,22 +4992,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1842.463835119064</v>
+        <v>1147.991414029041</v>
       </c>
       <c r="C11" t="n">
-        <v>1460.530076451872</v>
+        <v>766.057655361848</v>
       </c>
       <c r="D11" t="n">
-        <v>1087.706111679095</v>
+        <v>766.057655361848</v>
       </c>
       <c r="E11" t="n">
-        <v>692.9203917852021</v>
+        <v>371.2719354679548</v>
       </c>
       <c r="F11" t="n">
-        <v>278.7692010953725</v>
+        <v>371.2719354679548</v>
       </c>
       <c r="G11" t="n">
-        <v>49.82607702666018</v>
+        <v>371.2719354679548</v>
       </c>
       <c r="H11" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I11" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J11" t="n">
-        <v>214.2216698692712</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K11" t="n">
-        <v>592.8412662562254</v>
+        <v>428.4456734136144</v>
       </c>
       <c r="L11" t="n">
-        <v>1112.522362308279</v>
+        <v>428.4456734136144</v>
       </c>
       <c r="M11" t="n">
-        <v>1118.393454249016</v>
+        <v>1012.840682959627</v>
       </c>
       <c r="N11" t="n">
-        <v>1690.973757621417</v>
+        <v>1585.420986332027</v>
       </c>
       <c r="O11" t="n">
-        <v>2179.402112308431</v>
+        <v>2073.849341019042</v>
       </c>
       <c r="P11" t="n">
-        <v>2491.303851333009</v>
+        <v>2458.554181693993</v>
       </c>
       <c r="Q11" t="n">
         <v>2491.303851333009</v>
       </c>
       <c r="R11" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S11" t="n">
-        <v>2491.303851333009</v>
+        <v>2308.520516138612</v>
       </c>
       <c r="T11" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="U11" t="n">
-        <v>2236.507374637084</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="V11" t="n">
-        <v>2236.507374637084</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="W11" t="n">
-        <v>2236.507374637084</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="X11" t="n">
-        <v>2236.507374637084</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="Y11" t="n">
-        <v>2236.507374637084</v>
+        <v>1542.03495354706</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>902.3431652675848</v>
+        <v>902.3431652675847</v>
       </c>
       <c r="C12" t="n">
-        <v>740.6394925085395</v>
+        <v>740.6394925085394</v>
       </c>
       <c r="D12" t="n">
-        <v>601.8008554987516</v>
+        <v>601.8008554987515</v>
       </c>
       <c r="E12" t="n">
-        <v>454.7728455556228</v>
+        <v>454.7728455556227</v>
       </c>
       <c r="F12" t="n">
         <v>320.0790475054971</v>
@@ -5114,28 +5114,28 @@
         <v>191.9448484310711</v>
       </c>
       <c r="H12" t="n">
-        <v>97.74668653409066</v>
+        <v>97.74668653409063</v>
       </c>
       <c r="I12" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J12" t="n">
-        <v>165.1112727047912</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K12" t="n">
-        <v>488.6586534703735</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L12" t="n">
-        <v>980.9515114961811</v>
+        <v>542.1189350524678</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.351606049402</v>
+        <v>930.5977744404497</v>
       </c>
       <c r="N12" t="n">
         <v>1547.195477645369</v>
       </c>
       <c r="O12" t="n">
-        <v>2077.980885138594</v>
+        <v>2077.980885138595</v>
       </c>
       <c r="P12" t="n">
         <v>2491.303851333009</v>
@@ -5144,7 +5144,7 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R12" t="n">
-        <v>2468.418370027994</v>
+        <v>2468.418370027995</v>
       </c>
       <c r="S12" t="n">
         <v>2326.65776164247</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.3532224974157</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C13" t="n">
-        <v>522.7372529590959</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="D13" t="n">
-        <v>522.7372529590959</v>
+        <v>267.3083348447325</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7282387204148</v>
+        <v>179.045628269971</v>
       </c>
       <c r="F13" t="n">
-        <v>218.2475837461919</v>
+        <v>179.045628269971</v>
       </c>
       <c r="G13" t="n">
-        <v>49.82607702666018</v>
+        <v>179.045628269971</v>
       </c>
       <c r="H13" t="n">
-        <v>49.82607702666018</v>
+        <v>179.045628269971</v>
       </c>
       <c r="I13" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J13" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K13" t="n">
         <v>140.1649717127613</v>
@@ -5226,25 +5226,25 @@
         <v>993.6996921788734</v>
       </c>
       <c r="S13" t="n">
-        <v>788.6729272779172</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="T13" t="n">
-        <v>692.3532224974157</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U13" t="n">
-        <v>692.3532224974157</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V13" t="n">
-        <v>692.3532224974157</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W13" t="n">
-        <v>692.3532224974157</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3532224974157</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3532224974157</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>753.2056941351475</v>
+        <v>985.3246452048372</v>
       </c>
       <c r="C14" t="n">
-        <v>371.2719354679548</v>
+        <v>985.3246452048372</v>
       </c>
       <c r="D14" t="n">
-        <v>371.2719354679548</v>
+        <v>766.057655361848</v>
       </c>
       <c r="E14" t="n">
         <v>371.2719354679548</v>
@@ -5272,31 +5272,31 @@
         <v>371.2719354679548</v>
       </c>
       <c r="H14" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I14" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J14" t="n">
-        <v>214.2216698692712</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K14" t="n">
-        <v>592.8412662562254</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L14" t="n">
-        <v>1112.522362308279</v>
+        <v>569.507173078714</v>
       </c>
       <c r="M14" t="n">
-        <v>1118.393454249016</v>
+        <v>1153.902182624726</v>
       </c>
       <c r="N14" t="n">
-        <v>1406.17741577522</v>
+        <v>1726.482485997127</v>
       </c>
       <c r="O14" t="n">
-        <v>1894.605770462234</v>
+        <v>2214.910840684141</v>
       </c>
       <c r="P14" t="n">
-        <v>2279.310611137185</v>
+        <v>2279.310611137186</v>
       </c>
       <c r="Q14" t="n">
         <v>2491.303851333009</v>
@@ -5308,22 +5308,22 @@
         <v>2329.385974825349</v>
       </c>
       <c r="T14" t="n">
-        <v>2240.305293323786</v>
+        <v>2109.889314251077</v>
       </c>
       <c r="U14" t="n">
-        <v>2240.305293323786</v>
+        <v>2109.889314251077</v>
       </c>
       <c r="V14" t="n">
-        <v>1903.326019219728</v>
+        <v>1772.910040147018</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.791089077329</v>
+        <v>1772.910040147018</v>
       </c>
       <c r="X14" t="n">
-        <v>1540.791089077329</v>
+        <v>1772.910040147018</v>
       </c>
       <c r="Y14" t="n">
-        <v>1147.249233653167</v>
+        <v>1379.368184722856</v>
       </c>
     </row>
     <row r="15">
@@ -5348,40 +5348,40 @@
         <v>320.0790475054971</v>
       </c>
       <c r="G15" t="n">
-        <v>191.944848431071</v>
+        <v>191.9448484310711</v>
       </c>
       <c r="H15" t="n">
-        <v>97.74668653409071</v>
+        <v>97.74668653409063</v>
       </c>
       <c r="I15" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J15" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K15" t="n">
-        <v>373.3734577922424</v>
+        <v>231.5687964493214</v>
       </c>
       <c r="L15" t="n">
-        <v>588.7769110767503</v>
+        <v>723.8616544751289</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.37461428167</v>
+        <v>1340.459357680049</v>
       </c>
       <c r="N15" t="n">
-        <v>1821.972317486589</v>
+        <v>1957.057060884968</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.856920070664</v>
+        <v>2487.842468378194</v>
       </c>
       <c r="P15" t="n">
-        <v>2259.179886265078</v>
+        <v>2491.303851333009</v>
       </c>
       <c r="Q15" t="n">
         <v>2491.303851333009</v>
       </c>
       <c r="R15" t="n">
-        <v>2468.418370027994</v>
+        <v>2468.418370027995</v>
       </c>
       <c r="S15" t="n">
         <v>2326.65776164247</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3802280169697</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3802280169697</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="D16" t="n">
-        <v>267.3083348447325</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="E16" t="n">
-        <v>267.3083348447325</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="F16" t="n">
-        <v>204.7688986970168</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="G16" t="n">
-        <v>204.7688986970168</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H16" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I16" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J16" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K16" t="n">
         <v>140.1649717127613</v>
@@ -5466,22 +5466,22 @@
         <v>993.6996921788734</v>
       </c>
       <c r="T16" t="n">
-        <v>993.6996921788734</v>
+        <v>762.6495908030121</v>
       </c>
       <c r="U16" t="n">
-        <v>706.5366294995706</v>
+        <v>475.4865281237093</v>
       </c>
       <c r="V16" t="n">
-        <v>706.5366294995706</v>
+        <v>475.4865281237093</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3802280169697</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3802280169697</v>
+        <v>189.3301266411084</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3802280169697</v>
+        <v>189.3301266411084</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1199.369520360523</v>
+        <v>884.1085040219994</v>
       </c>
       <c r="C17" t="n">
-        <v>817.4357616933298</v>
+        <v>858.762987610383</v>
       </c>
       <c r="D17" t="n">
-        <v>444.6117969205533</v>
+        <v>858.762987610383</v>
       </c>
       <c r="E17" t="n">
-        <v>49.82607702666018</v>
+        <v>463.9772677164898</v>
       </c>
       <c r="F17" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="G17" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H17" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I17" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J17" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K17" t="n">
-        <v>326.2190876755279</v>
+        <v>114.2258474797048</v>
       </c>
       <c r="L17" t="n">
-        <v>845.9001837275817</v>
+        <v>633.9069435317587</v>
       </c>
       <c r="M17" t="n">
-        <v>1430.295193273594</v>
+        <v>1218.301953077771</v>
       </c>
       <c r="N17" t="n">
-        <v>2002.875496645995</v>
+        <v>1790.882256450172</v>
       </c>
       <c r="O17" t="n">
-        <v>2491.303851333009</v>
+        <v>2279.310611137186</v>
       </c>
       <c r="P17" t="n">
-        <v>2491.303851333009</v>
+        <v>2279.310611137186</v>
       </c>
       <c r="Q17" t="n">
         <v>2491.303851333009</v>
@@ -5545,22 +5545,22 @@
         <v>2308.520516138612</v>
       </c>
       <c r="T17" t="n">
-        <v>2089.023855564339</v>
+        <v>2308.520516138612</v>
       </c>
       <c r="U17" t="n">
-        <v>2089.023855564339</v>
+        <v>2053.724039442687</v>
       </c>
       <c r="V17" t="n">
-        <v>2089.023855564339</v>
+        <v>2053.724039442687</v>
       </c>
       <c r="W17" t="n">
-        <v>2089.023855564339</v>
+        <v>2053.724039442687</v>
       </c>
       <c r="X17" t="n">
-        <v>1986.954915302704</v>
+        <v>1671.693898964181</v>
       </c>
       <c r="Y17" t="n">
-        <v>1593.413059878542</v>
+        <v>1278.152043540018</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>902.3431652675851</v>
+        <v>902.3431652675848</v>
       </c>
       <c r="C18" t="n">
-        <v>740.6394925085398</v>
+        <v>740.6394925085395</v>
       </c>
       <c r="D18" t="n">
-        <v>601.8008554987518</v>
+        <v>601.8008554987516</v>
       </c>
       <c r="E18" t="n">
-        <v>454.772845555623</v>
+        <v>454.7728455556228</v>
       </c>
       <c r="F18" t="n">
-        <v>320.0790475054973</v>
+        <v>320.0790475054971</v>
       </c>
       <c r="G18" t="n">
         <v>191.9448484310711</v>
@@ -5591,43 +5591,43 @@
         <v>97.74668653409066</v>
       </c>
       <c r="I18" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J18" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K18" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L18" t="n">
-        <v>542.1189350524677</v>
+        <v>81.87610616759957</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.716638257387</v>
+        <v>698.4738093725193</v>
       </c>
       <c r="N18" t="n">
-        <v>1724.933095817038</v>
+        <v>1315.071512577439</v>
       </c>
       <c r="O18" t="n">
-        <v>2255.718503310263</v>
+        <v>1845.856920070664</v>
       </c>
       <c r="P18" t="n">
-        <v>2259.179886265078</v>
+        <v>2259.179886265079</v>
       </c>
       <c r="Q18" t="n">
         <v>2491.303851333009</v>
       </c>
       <c r="R18" t="n">
-        <v>2468.418370027994</v>
+        <v>2468.418370027995</v>
       </c>
       <c r="S18" t="n">
         <v>2326.65776164247</v>
       </c>
       <c r="T18" t="n">
-        <v>2140.368107497947</v>
+        <v>2140.368107497946</v>
       </c>
       <c r="U18" t="n">
-        <v>1921.912413839829</v>
+        <v>1921.912413839828</v>
       </c>
       <c r="V18" t="n">
         <v>1693.516791288162</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.3301266411084</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="C19" t="n">
-        <v>189.3301266411084</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="D19" t="n">
-        <v>49.82607702666018</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="E19" t="n">
-        <v>49.82607702666018</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="F19" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="G19" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H19" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I19" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J19" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K19" t="n">
         <v>140.1649717127613</v>
@@ -5703,22 +5703,22 @@
         <v>993.6996921788734</v>
       </c>
       <c r="T19" t="n">
-        <v>762.6495908030121</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U19" t="n">
-        <v>475.4865281237093</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V19" t="n">
-        <v>475.4865281237093</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="W19" t="n">
-        <v>189.3301266411084</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="X19" t="n">
-        <v>189.3301266411084</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.3301266411084</v>
+        <v>159.6449235753923</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1671.018107536714</v>
+        <v>1089.662308247509</v>
       </c>
       <c r="C20" t="n">
-        <v>1289.084348869521</v>
+        <v>1089.662308247509</v>
       </c>
       <c r="D20" t="n">
-        <v>916.2603840967447</v>
+        <v>988.7581945693669</v>
       </c>
       <c r="E20" t="n">
-        <v>916.2603840967447</v>
+        <v>593.9724746754737</v>
       </c>
       <c r="F20" t="n">
-        <v>916.2603840967447</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="G20" t="n">
-        <v>501.2671424269387</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="H20" t="n">
         <v>179.8212839856441</v>
       </c>
       <c r="I20" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J20" t="n">
-        <v>49.82607702666018</v>
+        <v>125.7601423318464</v>
       </c>
       <c r="K20" t="n">
-        <v>428.4456734136144</v>
+        <v>504.3797387188006</v>
       </c>
       <c r="L20" t="n">
-        <v>845.9001837275817</v>
+        <v>1024.060834770854</v>
       </c>
       <c r="M20" t="n">
-        <v>1430.295193273594</v>
+        <v>1608.455844316866</v>
       </c>
       <c r="N20" t="n">
-        <v>2002.875496645995</v>
+        <v>1618.170655971044</v>
       </c>
       <c r="O20" t="n">
-        <v>2491.303851333009</v>
+        <v>2106.599010658058</v>
       </c>
       <c r="P20" t="n">
         <v>2491.303851333009</v>
@@ -5776,28 +5776,28 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R20" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S20" t="n">
-        <v>2491.303851333009</v>
+        <v>2308.520516138612</v>
       </c>
       <c r="T20" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="U20" t="n">
-        <v>2491.303851333009</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="V20" t="n">
-        <v>2491.303851333009</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.303851333009</v>
+        <v>1471.692448726016</v>
       </c>
       <c r="X20" t="n">
-        <v>2458.603502478895</v>
+        <v>1089.662308247509</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.061647054733</v>
+        <v>1089.662308247509</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>902.3431652675848</v>
       </c>
       <c r="C21" t="n">
-        <v>740.6394925085395</v>
+        <v>740.6394925085397</v>
       </c>
       <c r="D21" t="n">
-        <v>601.8008554987516</v>
+        <v>601.8008554987518</v>
       </c>
       <c r="E21" t="n">
-        <v>454.7728455556228</v>
+        <v>454.772845555623</v>
       </c>
       <c r="F21" t="n">
-        <v>320.0790475054971</v>
+        <v>320.0790475054973</v>
       </c>
       <c r="G21" t="n">
-        <v>191.9448484310711</v>
+        <v>191.9448484310715</v>
       </c>
       <c r="H21" t="n">
         <v>97.74668653409066</v>
       </c>
       <c r="I21" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J21" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K21" t="n">
-        <v>373.3734577922424</v>
+        <v>298.9787376152743</v>
       </c>
       <c r="L21" t="n">
-        <v>865.66631581805</v>
+        <v>314.00007123553</v>
       </c>
       <c r="M21" t="n">
-        <v>1482.264019022969</v>
+        <v>930.5977744404497</v>
       </c>
       <c r="N21" t="n">
-        <v>1957.057060884968</v>
+        <v>1547.195477645369</v>
       </c>
       <c r="O21" t="n">
-        <v>2487.842468378193</v>
+        <v>2077.980885138595</v>
       </c>
       <c r="P21" t="n">
         <v>2491.303851333009</v>
@@ -5855,16 +5855,16 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R21" t="n">
-        <v>2468.418370027994</v>
+        <v>2468.418370027995</v>
       </c>
       <c r="S21" t="n">
-        <v>2326.65776164247</v>
+        <v>2326.657761642471</v>
       </c>
       <c r="T21" t="n">
-        <v>2140.368107497946</v>
+        <v>2140.368107497947</v>
       </c>
       <c r="U21" t="n">
-        <v>1921.912413839828</v>
+        <v>1921.912413839829</v>
       </c>
       <c r="V21" t="n">
         <v>1693.516791288162</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.0036089501212</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C22" t="n">
-        <v>507.3876394118015</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="D22" t="n">
-        <v>354.3157462395642</v>
+        <v>370.7282387204148</v>
       </c>
       <c r="E22" t="n">
-        <v>202.3067320008831</v>
+        <v>370.7282387204148</v>
       </c>
       <c r="F22" t="n">
-        <v>49.82607702666018</v>
+        <v>218.2475837461919</v>
       </c>
       <c r="G22" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H22" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I22" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J22" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K22" t="n">
         <v>140.1649717127613</v>
@@ -5943,19 +5943,19 @@
         <v>993.6996921788734</v>
       </c>
       <c r="U22" t="n">
-        <v>993.6996921788734</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V22" t="n">
-        <v>993.6996921788734</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W22" t="n">
-        <v>993.6996921788734</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="X22" t="n">
-        <v>993.6996921788734</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y22" t="n">
-        <v>860.558977634501</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1497.248104764355</v>
+        <v>613.9376554152137</v>
       </c>
       <c r="C23" t="n">
-        <v>1115.314346097162</v>
+        <v>613.9376554152137</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.314346097162</v>
+        <v>241.1136906424373</v>
       </c>
       <c r="E23" t="n">
-        <v>720.5286262032689</v>
+        <v>241.1136906424373</v>
       </c>
       <c r="F23" t="n">
-        <v>720.5286262032689</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="G23" t="n">
-        <v>501.2671424269387</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="H23" t="n">
         <v>179.8212839856441</v>
       </c>
       <c r="I23" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J23" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K23" t="n">
-        <v>326.2190876755279</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L23" t="n">
-        <v>845.9001837275817</v>
+        <v>569.507173078714</v>
       </c>
       <c r="M23" t="n">
-        <v>1430.295193273594</v>
+        <v>1153.902182624726</v>
       </c>
       <c r="N23" t="n">
-        <v>2002.875496645995</v>
+        <v>1726.482485997127</v>
       </c>
       <c r="O23" t="n">
-        <v>2491.303851333009</v>
+        <v>2106.599010658058</v>
       </c>
       <c r="P23" t="n">
         <v>2491.303851333009</v>
@@ -6019,22 +6019,22 @@
         <v>2308.520516138612</v>
       </c>
       <c r="T23" t="n">
-        <v>2089.023855564339</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="U23" t="n">
-        <v>1834.227378868414</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="V23" t="n">
-        <v>1497.248104764355</v>
+        <v>1752.044581460281</v>
       </c>
       <c r="W23" t="n">
-        <v>1497.248104764355</v>
+        <v>1389.509651317882</v>
       </c>
       <c r="X23" t="n">
-        <v>1497.248104764355</v>
+        <v>1007.479510839376</v>
       </c>
       <c r="Y23" t="n">
-        <v>1497.248104764355</v>
+        <v>613.9376554152137</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>97.74668653409066</v>
       </c>
       <c r="I24" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J24" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K24" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L24" t="n">
-        <v>81.8761061675998</v>
+        <v>542.1189350524678</v>
       </c>
       <c r="M24" t="n">
-        <v>698.4738093725194</v>
+        <v>1158.716638257388</v>
       </c>
       <c r="N24" t="n">
-        <v>1315.071512577439</v>
+        <v>1775.314341462307</v>
       </c>
       <c r="O24" t="n">
-        <v>1845.856920070664</v>
+        <v>2306.099748955533</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.179886265079</v>
+        <v>2491.303851333009</v>
       </c>
       <c r="Q24" t="n">
         <v>2491.303851333009</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.5366294995706</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="C25" t="n">
-        <v>636.6071906551124</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="D25" t="n">
-        <v>483.5352974828751</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="E25" t="n">
-        <v>331.5262832441939</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="F25" t="n">
-        <v>179.045628269971</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="G25" t="n">
-        <v>179.045628269971</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H25" t="n">
-        <v>179.045628269971</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I25" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J25" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K25" t="n">
         <v>140.1649717127613</v>
@@ -6183,16 +6183,16 @@
         <v>706.5366294995706</v>
       </c>
       <c r="V25" t="n">
-        <v>706.5366294995706</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="W25" t="n">
-        <v>706.5366294995706</v>
+        <v>159.6449235753923</v>
       </c>
       <c r="X25" t="n">
-        <v>706.5366294995706</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.5366294995706</v>
+        <v>49.82607702666019</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1321.688315912321</v>
+        <v>1349.572249095419</v>
       </c>
       <c r="C26" t="n">
-        <v>939.7545572451284</v>
+        <v>967.6384904282265</v>
       </c>
       <c r="D26" t="n">
-        <v>939.7545572451284</v>
+        <v>594.8145256554501</v>
       </c>
       <c r="E26" t="n">
-        <v>544.9688373512352</v>
+        <v>594.8145256554501</v>
       </c>
       <c r="F26" t="n">
-        <v>130.8176466614055</v>
+        <v>594.8145256554501</v>
       </c>
       <c r="G26" t="n">
-        <v>49.82607702666018</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="H26" t="n">
-        <v>49.82607702666018</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="I26" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J26" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K26" t="n">
-        <v>326.2190876755279</v>
+        <v>326.2190876755284</v>
       </c>
       <c r="L26" t="n">
-        <v>845.9001837275817</v>
+        <v>845.9001837275822</v>
       </c>
       <c r="M26" t="n">
         <v>1430.295193273594</v>
@@ -6250,28 +6250,28 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R26" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S26" t="n">
-        <v>2491.303851333009</v>
+        <v>2308.520516138612</v>
       </c>
       <c r="T26" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="U26" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="V26" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="W26" t="n">
-        <v>2491.303851333009</v>
+        <v>1731.602389573926</v>
       </c>
       <c r="X26" t="n">
-        <v>2109.273710854502</v>
+        <v>1349.572249095419</v>
       </c>
       <c r="Y26" t="n">
-        <v>1715.73185543034</v>
+        <v>1349.572249095419</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>902.3431652675852</v>
+        <v>902.3431652675848</v>
       </c>
       <c r="C27" t="n">
-        <v>740.6394925085399</v>
+        <v>740.6394925085397</v>
       </c>
       <c r="D27" t="n">
-        <v>601.800855498752</v>
+        <v>601.8008554987518</v>
       </c>
       <c r="E27" t="n">
-        <v>454.7728455556232</v>
+        <v>454.772845555623</v>
       </c>
       <c r="F27" t="n">
-        <v>320.0790475054976</v>
+        <v>320.0790475054973</v>
       </c>
       <c r="G27" t="n">
-        <v>191.9448484310712</v>
+        <v>191.9448484310715</v>
       </c>
       <c r="H27" t="n">
         <v>97.74668653409071</v>
       </c>
       <c r="I27" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J27" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K27" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L27" t="n">
-        <v>542.1189350524677</v>
+        <v>314.00007123553</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.716638257387</v>
+        <v>930.5977744404497</v>
       </c>
       <c r="N27" t="n">
-        <v>1775.314341462307</v>
+        <v>1547.195477645369</v>
       </c>
       <c r="O27" t="n">
-        <v>2306.099748955532</v>
+        <v>2077.980885138595</v>
       </c>
       <c r="P27" t="n">
         <v>2491.303851333009</v>
@@ -6329,16 +6329,16 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R27" t="n">
-        <v>2468.418370027994</v>
+        <v>2468.418370027995</v>
       </c>
       <c r="S27" t="n">
-        <v>2326.65776164247</v>
+        <v>2326.657761642471</v>
       </c>
       <c r="T27" t="n">
-        <v>2140.368107497946</v>
+        <v>2140.368107497947</v>
       </c>
       <c r="U27" t="n">
-        <v>1921.912413839828</v>
+        <v>1921.912413839829</v>
       </c>
       <c r="V27" t="n">
         <v>1693.516791288162</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.6228259020559</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="C28" t="n">
-        <v>509.8498061079353</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="D28" t="n">
-        <v>356.777912935698</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="E28" t="n">
-        <v>204.7688986970168</v>
+        <v>293.792310819312</v>
       </c>
       <c r="F28" t="n">
-        <v>204.7688986970168</v>
+        <v>141.3116558450891</v>
       </c>
       <c r="G28" t="n">
-        <v>204.7688986970168</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H28" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I28" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J28" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K28" t="n">
         <v>140.1649717127613</v>
@@ -6411,25 +6411,25 @@
         <v>993.6996921788734</v>
       </c>
       <c r="S28" t="n">
-        <v>788.6729272779172</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="T28" t="n">
-        <v>557.6228259020559</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U28" t="n">
-        <v>557.6228259020559</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V28" t="n">
-        <v>557.6228259020559</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="W28" t="n">
-        <v>557.6228259020559</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="X28" t="n">
-        <v>557.6228259020559</v>
+        <v>445.8013250579932</v>
       </c>
       <c r="Y28" t="n">
-        <v>557.6228259020559</v>
+        <v>445.8013250579932</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2028.513952720158</v>
+        <v>1273.756229280189</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.580194052965</v>
+        <v>1273.756229280189</v>
       </c>
       <c r="D29" t="n">
         <v>1273.756229280189</v>
@@ -6463,22 +6463,22 @@
         <v>49.82607702666019</v>
       </c>
       <c r="J29" t="n">
-        <v>49.82607702666019</v>
+        <v>214.2216698692712</v>
       </c>
       <c r="K29" t="n">
-        <v>326.2190876755284</v>
+        <v>592.8412662562254</v>
       </c>
       <c r="L29" t="n">
-        <v>845.9001837275822</v>
+        <v>1039.719260657906</v>
       </c>
       <c r="M29" t="n">
-        <v>1430.295193273594</v>
+        <v>1045.590352598643</v>
       </c>
       <c r="N29" t="n">
-        <v>2002.875496645995</v>
+        <v>1618.170655971044</v>
       </c>
       <c r="O29" t="n">
-        <v>2491.303851333009</v>
+        <v>2106.599010658058</v>
       </c>
       <c r="P29" t="n">
         <v>2491.303851333009</v>
@@ -6496,19 +6496,19 @@
         <v>2470.438392646272</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.557492238177</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="V29" t="n">
-        <v>2422.557492238177</v>
+        <v>2133.459118542214</v>
       </c>
       <c r="W29" t="n">
-        <v>2422.557492238177</v>
+        <v>2049.829909276715</v>
       </c>
       <c r="X29" t="n">
-        <v>2422.557492238177</v>
+        <v>1667.799768798208</v>
       </c>
       <c r="Y29" t="n">
-        <v>2422.557492238177</v>
+        <v>1667.799768798208</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>902.3431652675846</v>
+        <v>902.3431652675848</v>
       </c>
       <c r="C30" t="n">
-        <v>740.6394925085393</v>
+        <v>740.6394925085395</v>
       </c>
       <c r="D30" t="n">
-        <v>601.8008554987514</v>
+        <v>601.8008554987516</v>
       </c>
       <c r="E30" t="n">
-        <v>454.7728455556226</v>
+        <v>454.7728455556228</v>
       </c>
       <c r="F30" t="n">
-        <v>320.0790475054969</v>
+        <v>320.0790475054971</v>
       </c>
       <c r="G30" t="n">
         <v>191.9448484310711</v>
@@ -6542,16 +6542,16 @@
         <v>49.82607702666019</v>
       </c>
       <c r="J30" t="n">
-        <v>49.82607702666019</v>
+        <v>165.1112727047912</v>
       </c>
       <c r="K30" t="n">
-        <v>373.3734577922424</v>
+        <v>488.6586534703735</v>
       </c>
       <c r="L30" t="n">
-        <v>865.66631581805</v>
+        <v>980.9515114961811</v>
       </c>
       <c r="M30" t="n">
-        <v>1269.227640981472</v>
+        <v>1014.208154710452</v>
       </c>
       <c r="N30" t="n">
         <v>1315.071512577439</v>
@@ -6569,10 +6569,10 @@
         <v>2468.418370027995</v>
       </c>
       <c r="S30" t="n">
-        <v>2326.657761642471</v>
+        <v>2326.65776164247</v>
       </c>
       <c r="T30" t="n">
-        <v>2140.368107497947</v>
+        <v>2140.368107497946</v>
       </c>
       <c r="U30" t="n">
         <v>1921.912413839828</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.6449235753923</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C31" t="n">
-        <v>159.6449235753923</v>
+        <v>250.76425847865</v>
       </c>
       <c r="D31" t="n">
-        <v>49.82607702666019</v>
+        <v>97.69236530641274</v>
       </c>
       <c r="E31" t="n">
         <v>49.82607702666019</v>
@@ -6657,16 +6657,16 @@
         <v>706.5366294995706</v>
       </c>
       <c r="V31" t="n">
-        <v>445.8013250579932</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W31" t="n">
-        <v>159.6449235753923</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="X31" t="n">
-        <v>159.6449235753923</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.6449235753923</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>622.1741116658638</v>
+        <v>1725.197294680468</v>
       </c>
       <c r="C32" t="n">
-        <v>240.2403529986712</v>
+        <v>1725.197294680468</v>
       </c>
       <c r="D32" t="n">
-        <v>49.82607702666019</v>
+        <v>1725.197294680468</v>
       </c>
       <c r="E32" t="n">
-        <v>49.82607702666019</v>
+        <v>1330.411574786574</v>
       </c>
       <c r="F32" t="n">
-        <v>49.82607702666019</v>
+        <v>916.2603840967447</v>
       </c>
       <c r="G32" t="n">
-        <v>49.82607702666019</v>
+        <v>501.2671424269387</v>
       </c>
       <c r="H32" t="n">
-        <v>49.82607702666019</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="I32" t="n">
         <v>49.82607702666019</v>
@@ -6703,49 +6703,49 @@
         <v>49.82607702666019</v>
       </c>
       <c r="K32" t="n">
-        <v>428.4456734136144</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L32" t="n">
-        <v>948.1267694656682</v>
+        <v>461.1953430526308</v>
       </c>
       <c r="M32" t="n">
-        <v>1322.025467089834</v>
+        <v>1045.590352598643</v>
       </c>
       <c r="N32" t="n">
-        <v>1894.605770462234</v>
+        <v>1618.170655971044</v>
       </c>
       <c r="O32" t="n">
-        <v>1894.605770462234</v>
+        <v>2106.599010658058</v>
       </c>
       <c r="P32" t="n">
-        <v>2279.310611137186</v>
+        <v>2491.303851333009</v>
       </c>
       <c r="Q32" t="n">
         <v>2491.303851333009</v>
       </c>
       <c r="R32" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S32" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="T32" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="U32" t="n">
-        <v>2491.303851333009</v>
+        <v>2456.220108302546</v>
       </c>
       <c r="V32" t="n">
-        <v>2154.324577228951</v>
+        <v>2119.240834198487</v>
       </c>
       <c r="W32" t="n">
-        <v>1791.789647086552</v>
+        <v>2119.240834198487</v>
       </c>
       <c r="X32" t="n">
-        <v>1409.759506608045</v>
+        <v>2119.240834198487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1016.217651183883</v>
+        <v>2119.240834198487</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>49.82607702666019</v>
       </c>
       <c r="K33" t="n">
-        <v>373.3734577922424</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L33" t="n">
-        <v>388.3947914124981</v>
+        <v>542.1189350524678</v>
       </c>
       <c r="M33" t="n">
-        <v>930.5977744404497</v>
+        <v>1158.716638257388</v>
       </c>
       <c r="N33" t="n">
-        <v>1547.195477645369</v>
+        <v>1775.314341462307</v>
       </c>
       <c r="O33" t="n">
-        <v>2077.980885138595</v>
+        <v>2306.099748955533</v>
       </c>
       <c r="P33" t="n">
         <v>2491.303851333009</v>
@@ -6806,10 +6806,10 @@
         <v>2468.418370027995</v>
       </c>
       <c r="S33" t="n">
-        <v>2326.657761642471</v>
+        <v>2326.65776164247</v>
       </c>
       <c r="T33" t="n">
-        <v>2140.368107497947</v>
+        <v>2140.368107497946</v>
       </c>
       <c r="U33" t="n">
         <v>1921.912413839828</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.82607702666019</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C34" t="n">
-        <v>49.82607702666019</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="D34" t="n">
-        <v>49.82607702666019</v>
+        <v>354.3157462395642</v>
       </c>
       <c r="E34" t="n">
-        <v>49.82607702666019</v>
+        <v>202.3067320008831</v>
       </c>
       <c r="F34" t="n">
         <v>49.82607702666019</v>
@@ -6900,10 +6900,10 @@
         <v>420.3802280169697</v>
       </c>
       <c r="X34" t="n">
-        <v>189.1277639123455</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.82607702666019</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>786.2651771377609</v>
+        <v>1273.756229280189</v>
       </c>
       <c r="C35" t="n">
-        <v>786.2651771377609</v>
+        <v>1273.756229280189</v>
       </c>
       <c r="D35" t="n">
-        <v>786.2651771377609</v>
+        <v>1273.756229280189</v>
       </c>
       <c r="E35" t="n">
-        <v>786.2651771377609</v>
+        <v>878.9705093862959</v>
       </c>
       <c r="F35" t="n">
-        <v>786.2651771377609</v>
+        <v>464.8193186964663</v>
       </c>
       <c r="G35" t="n">
-        <v>371.2719354679548</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H35" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I35" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J35" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K35" t="n">
-        <v>49.82607702666018</v>
+        <v>326.2190876755284</v>
       </c>
       <c r="L35" t="n">
-        <v>569.507173078714</v>
+        <v>845.9001837275822</v>
       </c>
       <c r="M35" t="n">
-        <v>1045.590352598643</v>
+        <v>1430.295193273594</v>
       </c>
       <c r="N35" t="n">
-        <v>1618.170655971043</v>
+        <v>2002.875496645995</v>
       </c>
       <c r="O35" t="n">
-        <v>2106.599010658058</v>
+        <v>2491.303851333009</v>
       </c>
       <c r="P35" t="n">
         <v>2491.303851333009</v>
@@ -6967,22 +6967,22 @@
         <v>2470.438392646272</v>
       </c>
       <c r="T35" t="n">
-        <v>2470.438392646272</v>
+        <v>2250.941732071999</v>
       </c>
       <c r="U35" t="n">
-        <v>2261.351377286887</v>
+        <v>2061.34162422237</v>
       </c>
       <c r="V35" t="n">
-        <v>1924.372103182828</v>
+        <v>2061.34162422237</v>
       </c>
       <c r="W35" t="n">
-        <v>1561.837173040429</v>
+        <v>2061.34162422237</v>
       </c>
       <c r="X35" t="n">
-        <v>1179.807032561923</v>
+        <v>2061.34162422237</v>
       </c>
       <c r="Y35" t="n">
-        <v>786.2651771377609</v>
+        <v>1667.799768798208</v>
       </c>
     </row>
     <row r="36">
@@ -6995,46 +6995,46 @@
         <v>902.3431652675848</v>
       </c>
       <c r="C36" t="n">
-        <v>740.6394925085395</v>
+        <v>740.6394925085397</v>
       </c>
       <c r="D36" t="n">
-        <v>601.8008554987516</v>
+        <v>601.8008554987518</v>
       </c>
       <c r="E36" t="n">
-        <v>454.7728455556228</v>
+        <v>454.772845555623</v>
       </c>
       <c r="F36" t="n">
-        <v>320.0790475054971</v>
+        <v>320.0790475054973</v>
       </c>
       <c r="G36" t="n">
-        <v>191.9448484310711</v>
+        <v>191.9448484310715</v>
       </c>
       <c r="H36" t="n">
-        <v>97.74668653409063</v>
+        <v>97.74668653409066</v>
       </c>
       <c r="I36" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J36" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K36" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L36" t="n">
-        <v>542.1189350524677</v>
+        <v>542.1189350524678</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.716638257387</v>
+        <v>1158.716638257388</v>
       </c>
       <c r="N36" t="n">
         <v>1775.314341462307</v>
       </c>
       <c r="O36" t="n">
-        <v>2306.099748955532</v>
+        <v>1845.856920070664</v>
       </c>
       <c r="P36" t="n">
-        <v>2491.303851333009</v>
+        <v>2259.179886265079</v>
       </c>
       <c r="Q36" t="n">
         <v>2491.303851333009</v>
@@ -7043,13 +7043,13 @@
         <v>2468.418370027995</v>
       </c>
       <c r="S36" t="n">
-        <v>2326.65776164247</v>
+        <v>2326.657761642471</v>
       </c>
       <c r="T36" t="n">
         <v>2140.368107497947</v>
       </c>
       <c r="U36" t="n">
-        <v>1921.912413839828</v>
+        <v>1921.912413839829</v>
       </c>
       <c r="V36" t="n">
         <v>1693.516791288162</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2482.407213562853</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C37" t="n">
-        <v>2482.407213562853</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="D37" t="n">
-        <v>2329.335320390616</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="E37" t="n">
-        <v>2177.326306151935</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="F37" t="n">
-        <v>2024.845651177712</v>
+        <v>373.1904054165486</v>
       </c>
       <c r="G37" t="n">
-        <v>1856.42414445818</v>
+        <v>204.7688986970168</v>
       </c>
       <c r="H37" t="n">
-        <v>1701.481322787824</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I37" t="n">
-        <v>1572.261771544513</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J37" t="n">
-        <v>1547.430236180796</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K37" t="n">
-        <v>1637.769130866897</v>
+        <v>140.1649717127613</v>
       </c>
       <c r="L37" t="n">
-        <v>1810.97710207628</v>
+        <v>313.3729429221444</v>
       </c>
       <c r="M37" t="n">
-        <v>2005.518069220435</v>
+        <v>507.9139100662996</v>
       </c>
       <c r="N37" t="n">
-        <v>2198.667744455603</v>
+        <v>701.0635853014679</v>
       </c>
       <c r="O37" t="n">
-        <v>2366.154178394625</v>
+        <v>868.5500192404897</v>
       </c>
       <c r="P37" t="n">
-        <v>2488.183580835529</v>
+        <v>990.5794216813938</v>
       </c>
       <c r="Q37" t="n">
-        <v>2491.303851333009</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="R37" t="n">
-        <v>2482.407213562853</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="S37" t="n">
-        <v>2482.407213562853</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="T37" t="n">
-        <v>2482.407213562853</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U37" t="n">
-        <v>2482.407213562853</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V37" t="n">
-        <v>2482.407213562853</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W37" t="n">
-        <v>2482.407213562853</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="X37" t="n">
-        <v>2482.407213562853</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y37" t="n">
-        <v>2482.407213562853</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>935.4663693378466</v>
+        <v>1300.822857225585</v>
       </c>
       <c r="C38" t="n">
-        <v>935.4663693378466</v>
+        <v>1300.822857225585</v>
       </c>
       <c r="D38" t="n">
-        <v>935.4663693378466</v>
+        <v>1300.822857225585</v>
       </c>
       <c r="E38" t="n">
-        <v>935.4663693378466</v>
+        <v>906.0371373316914</v>
       </c>
       <c r="F38" t="n">
-        <v>916.2603840967447</v>
+        <v>491.8859466418617</v>
       </c>
       <c r="G38" t="n">
-        <v>501.2671424269387</v>
+        <v>76.89270497205564</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8212839856441</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I38" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J38" t="n">
-        <v>49.82607702666018</v>
+        <v>214.2216698692712</v>
       </c>
       <c r="K38" t="n">
-        <v>428.4456734136144</v>
+        <v>592.8412662562254</v>
       </c>
       <c r="L38" t="n">
-        <v>948.1267694656682</v>
+        <v>1112.522362308279</v>
       </c>
       <c r="M38" t="n">
-        <v>1532.52177901168</v>
+        <v>1696.917371854292</v>
       </c>
       <c r="N38" t="n">
-        <v>2105.102082384081</v>
+        <v>2269.497675226692</v>
       </c>
       <c r="O38" t="n">
-        <v>2491.303851333009</v>
+        <v>2279.310611137186</v>
       </c>
       <c r="P38" t="n">
-        <v>2491.303851333009</v>
+        <v>2279.310611137186</v>
       </c>
       <c r="Q38" t="n">
         <v>2491.303851333009</v>
       </c>
       <c r="R38" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S38" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="T38" t="n">
-        <v>2271.807190758736</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="U38" t="n">
-        <v>2017.010714062811</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="V38" t="n">
-        <v>1680.031439958752</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="W38" t="n">
-        <v>1317.496509816353</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="X38" t="n">
-        <v>935.4663693378466</v>
+        <v>2088.408252167766</v>
       </c>
       <c r="Y38" t="n">
-        <v>935.4663693378466</v>
+        <v>1694.866396743604</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>902.3431652675848</v>
       </c>
       <c r="C39" t="n">
-        <v>740.6394925085395</v>
+        <v>740.6394925085397</v>
       </c>
       <c r="D39" t="n">
-        <v>601.8008554987516</v>
+        <v>601.8008554987518</v>
       </c>
       <c r="E39" t="n">
-        <v>454.7728455556228</v>
+        <v>454.772845555623</v>
       </c>
       <c r="F39" t="n">
-        <v>320.0790475054971</v>
+        <v>320.0790475054973</v>
       </c>
       <c r="G39" t="n">
-        <v>191.9448484310711</v>
+        <v>191.944848431071</v>
       </c>
       <c r="H39" t="n">
         <v>97.74668653409066</v>
       </c>
       <c r="I39" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J39" t="n">
-        <v>165.1112727047912</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K39" t="n">
-        <v>488.6586534703735</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L39" t="n">
-        <v>980.9515114961811</v>
+        <v>542.1189350524678</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.351606049402</v>
+        <v>1158.716638257388</v>
       </c>
       <c r="N39" t="n">
-        <v>1547.195477645369</v>
+        <v>1775.314341462307</v>
       </c>
       <c r="O39" t="n">
-        <v>2077.980885138594</v>
+        <v>2306.099748955533</v>
       </c>
       <c r="P39" t="n">
         <v>2491.303851333009</v>
@@ -7280,13 +7280,13 @@
         <v>2468.418370027995</v>
       </c>
       <c r="S39" t="n">
-        <v>2326.65776164247</v>
+        <v>2326.657761642471</v>
       </c>
       <c r="T39" t="n">
-        <v>2140.368107497946</v>
+        <v>2140.368107497947</v>
       </c>
       <c r="U39" t="n">
-        <v>1921.912413839828</v>
+        <v>1921.912413839829</v>
       </c>
       <c r="V39" t="n">
         <v>1693.516791288162</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.6449235753923</v>
+        <v>354.3157462395642</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6449235753923</v>
+        <v>354.3157462395642</v>
       </c>
       <c r="D40" t="n">
-        <v>159.6449235753923</v>
+        <v>354.3157462395642</v>
       </c>
       <c r="E40" t="n">
-        <v>49.82607702666018</v>
+        <v>202.3067320008831</v>
       </c>
       <c r="F40" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="G40" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H40" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I40" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J40" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K40" t="n">
         <v>140.1649717127613</v>
@@ -7368,16 +7368,16 @@
         <v>706.5366294995706</v>
       </c>
       <c r="V40" t="n">
-        <v>445.8013250579932</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W40" t="n">
-        <v>159.6449235753923</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="X40" t="n">
-        <v>159.6449235753923</v>
+        <v>475.2841653949464</v>
       </c>
       <c r="Y40" t="n">
-        <v>159.6449235753923</v>
+        <v>475.2841653949464</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2329.385974825349</v>
+        <v>1300.822857225585</v>
       </c>
       <c r="C41" t="n">
-        <v>1947.452216158156</v>
+        <v>1300.822857225585</v>
       </c>
       <c r="D41" t="n">
-        <v>1574.62825138538</v>
+        <v>927.9988924528081</v>
       </c>
       <c r="E41" t="n">
-        <v>1179.842531491487</v>
+        <v>533.2131725589149</v>
       </c>
       <c r="F41" t="n">
-        <v>765.6913408016569</v>
+        <v>119.0619818690853</v>
       </c>
       <c r="G41" t="n">
-        <v>350.6980991318508</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8212839856441</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="I41" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J41" t="n">
-        <v>49.82607702666018</v>
+        <v>214.2216698692712</v>
       </c>
       <c r="K41" t="n">
-        <v>326.2190876755279</v>
+        <v>592.8412662562254</v>
       </c>
       <c r="L41" t="n">
-        <v>845.9001837275817</v>
+        <v>1112.522362308279</v>
       </c>
       <c r="M41" t="n">
-        <v>1430.295193273594</v>
+        <v>1696.917371854292</v>
       </c>
       <c r="N41" t="n">
-        <v>2002.875496645995</v>
+        <v>2269.497675226692</v>
       </c>
       <c r="O41" t="n">
         <v>2491.303851333009</v>
@@ -7435,28 +7435,28 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R41" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S41" t="n">
-        <v>2329.385974825349</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="T41" t="n">
-        <v>2329.385974825349</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="U41" t="n">
-        <v>2329.385974825349</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="V41" t="n">
-        <v>2329.385974825349</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="W41" t="n">
-        <v>2329.385974825349</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="X41" t="n">
-        <v>2329.385974825349</v>
+        <v>2088.408252167766</v>
       </c>
       <c r="Y41" t="n">
-        <v>2329.385974825349</v>
+        <v>1694.866396743604</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>191.9448484310711</v>
       </c>
       <c r="H42" t="n">
-        <v>97.74668653409063</v>
+        <v>97.74668653409066</v>
       </c>
       <c r="I42" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J42" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K42" t="n">
-        <v>49.82607702666018</v>
+        <v>373.3734577922424</v>
       </c>
       <c r="L42" t="n">
-        <v>542.1189350524677</v>
+        <v>388.3947914124981</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.716638257387</v>
+        <v>1004.992494617418</v>
       </c>
       <c r="N42" t="n">
         <v>1547.195477645369</v>
       </c>
       <c r="O42" t="n">
-        <v>2077.980885138594</v>
+        <v>2077.980885138595</v>
       </c>
       <c r="P42" t="n">
         <v>2491.303851333009</v>
@@ -7520,7 +7520,7 @@
         <v>2326.65776164247</v>
       </c>
       <c r="T42" t="n">
-        <v>2140.368107497947</v>
+        <v>2140.368107497946</v>
       </c>
       <c r="U42" t="n">
         <v>1921.912413839828</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.00875070681357</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="C43" t="n">
-        <v>62.00875070681357</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="D43" t="n">
-        <v>62.00875070681357</v>
+        <v>267.3083348447325</v>
       </c>
       <c r="E43" t="n">
-        <v>62.00875070681357</v>
+        <v>115.2993206060513</v>
       </c>
       <c r="F43" t="n">
-        <v>62.00875070681357</v>
+        <v>115.2993206060513</v>
       </c>
       <c r="G43" t="n">
-        <v>62.00875070681357</v>
+        <v>115.2993206060513</v>
       </c>
       <c r="H43" t="n">
-        <v>49.82607702666018</v>
+        <v>115.2993206060513</v>
       </c>
       <c r="I43" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="J43" t="n">
-        <v>49.82607702666018</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="K43" t="n">
         <v>140.1649717127613</v>
@@ -7593,28 +7593,28 @@
         <v>993.6996921788734</v>
       </c>
       <c r="R43" t="n">
-        <v>866.5806789733414</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="S43" t="n">
-        <v>866.5806789733414</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="T43" t="n">
-        <v>866.5806789733414</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U43" t="n">
-        <v>579.4176162940387</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="V43" t="n">
-        <v>579.4176162940387</v>
+        <v>706.5366294995706</v>
       </c>
       <c r="W43" t="n">
-        <v>293.2612148114378</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="X43" t="n">
-        <v>62.00875070681357</v>
+        <v>420.3802280169697</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.00875070681357</v>
+        <v>420.3802280169697</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.789647086552</v>
+        <v>1134.713174621957</v>
       </c>
       <c r="C44" t="n">
-        <v>1409.855888419359</v>
+        <v>874.0911071997151</v>
       </c>
       <c r="D44" t="n">
-        <v>1409.855888419359</v>
+        <v>501.2671424269387</v>
       </c>
       <c r="E44" t="n">
-        <v>1015.070168525466</v>
+        <v>501.2671424269387</v>
       </c>
       <c r="F44" t="n">
-        <v>600.918977835636</v>
+        <v>501.2671424269387</v>
       </c>
       <c r="G44" t="n">
-        <v>185.92573616583</v>
+        <v>501.2671424269387</v>
       </c>
       <c r="H44" t="n">
-        <v>49.82607702666019</v>
+        <v>179.8212839856441</v>
       </c>
       <c r="I44" t="n">
         <v>49.82607702666019</v>
@@ -7651,19 +7651,19 @@
         <v>49.82607702666019</v>
       </c>
       <c r="K44" t="n">
-        <v>428.4456734136144</v>
+        <v>49.82607702666019</v>
       </c>
       <c r="L44" t="n">
-        <v>948.1267694656682</v>
+        <v>461.1953430526308</v>
       </c>
       <c r="M44" t="n">
-        <v>1532.52177901168</v>
+        <v>1045.590352598643</v>
       </c>
       <c r="N44" t="n">
-        <v>2105.102082384081</v>
+        <v>1618.170655971044</v>
       </c>
       <c r="O44" t="n">
-        <v>2491.303851333009</v>
+        <v>2106.599010658058</v>
       </c>
       <c r="P44" t="n">
         <v>2491.303851333009</v>
@@ -7672,28 +7672,28 @@
         <v>2491.303851333009</v>
       </c>
       <c r="R44" t="n">
-        <v>2491.303851333009</v>
+        <v>2470.438392646272</v>
       </c>
       <c r="S44" t="n">
-        <v>2491.303851333009</v>
+        <v>2308.520516138612</v>
       </c>
       <c r="T44" t="n">
-        <v>2491.303851333009</v>
+        <v>2089.02385556434</v>
       </c>
       <c r="U44" t="n">
-        <v>2491.303851333009</v>
+        <v>1834.227378868414</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.324577228951</v>
+        <v>1497.248104764356</v>
       </c>
       <c r="W44" t="n">
-        <v>1791.789647086552</v>
+        <v>1134.713174621957</v>
       </c>
       <c r="X44" t="n">
-        <v>1791.789647086552</v>
+        <v>1134.713174621957</v>
       </c>
       <c r="Y44" t="n">
-        <v>1791.789647086552</v>
+        <v>1134.713174621957</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>902.3431652675846</v>
+        <v>902.3431652675848</v>
       </c>
       <c r="C45" t="n">
-        <v>740.6394925085393</v>
+        <v>740.6394925085397</v>
       </c>
       <c r="D45" t="n">
-        <v>601.8008554987514</v>
+        <v>601.8008554987518</v>
       </c>
       <c r="E45" t="n">
-        <v>454.7728455556227</v>
+        <v>454.772845555623</v>
       </c>
       <c r="F45" t="n">
-        <v>320.079047505497</v>
+        <v>320.0790475054973</v>
       </c>
       <c r="G45" t="n">
-        <v>191.9448484310711</v>
+        <v>191.944848431071</v>
       </c>
       <c r="H45" t="n">
         <v>97.74668653409066</v>
@@ -7733,16 +7733,16 @@
         <v>373.3734577922424</v>
       </c>
       <c r="L45" t="n">
-        <v>388.3947914124981</v>
+        <v>865.66631581805</v>
       </c>
       <c r="M45" t="n">
-        <v>1004.992494617418</v>
+        <v>1482.26401902297</v>
       </c>
       <c r="N45" t="n">
-        <v>1621.590197822338</v>
+        <v>2098.861722227889</v>
       </c>
       <c r="O45" t="n">
-        <v>2152.375605315563</v>
+        <v>2122.746324811964</v>
       </c>
       <c r="P45" t="n">
         <v>2491.303851333009</v>
@@ -7757,10 +7757,10 @@
         <v>2326.657761642471</v>
       </c>
       <c r="T45" t="n">
-        <v>2140.368107497946</v>
+        <v>2140.368107497947</v>
       </c>
       <c r="U45" t="n">
-        <v>1921.912413839828</v>
+        <v>1921.912413839829</v>
       </c>
       <c r="V45" t="n">
         <v>1693.516791288162</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.82607702666019</v>
+        <v>224.7728274469722</v>
       </c>
       <c r="C46" t="n">
-        <v>49.82607702666019</v>
+        <v>55.15685790865246</v>
       </c>
       <c r="D46" t="n">
-        <v>49.82607702666019</v>
+        <v>55.15685790865246</v>
       </c>
       <c r="E46" t="n">
-        <v>49.82607702666019</v>
+        <v>55.15685790865246</v>
       </c>
       <c r="F46" t="n">
-        <v>49.82607702666019</v>
+        <v>55.15685790865246</v>
       </c>
       <c r="G46" t="n">
-        <v>49.82607702666019</v>
+        <v>55.15685790865246</v>
       </c>
       <c r="H46" t="n">
         <v>49.82607702666019</v>
@@ -7833,25 +7833,25 @@
         <v>993.6996921788734</v>
       </c>
       <c r="S46" t="n">
-        <v>854.1956425644252</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="T46" t="n">
-        <v>623.1455411885638</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="U46" t="n">
-        <v>335.9824785092611</v>
+        <v>993.6996921788734</v>
       </c>
       <c r="V46" t="n">
-        <v>335.9824785092611</v>
+        <v>732.964387737296</v>
       </c>
       <c r="W46" t="n">
-        <v>49.82607702666019</v>
+        <v>446.8079862546951</v>
       </c>
       <c r="X46" t="n">
-        <v>49.82607702666019</v>
+        <v>446.8079862546951</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.82607702666019</v>
+        <v>224.7728274469722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8057,13 +8057,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>324.9477342979506</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8072,7 +8072,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>294.5927905918182</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8233,7 +8233,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8297,16 +8297,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>543.4252385523532</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8531,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>260.5781121823764</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8543,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>53.76944533722018</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>18.02917886300585</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8707,10 +8707,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>344.7998341073983</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.8749018014886</v>
+        <v>94.95537618433329</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8768,19 +8768,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>47.46865333835867</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>16.98927198950145</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>492.0640922615659</v>
+        <v>358.8102991653648</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>576.5190218272252</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>53.76944533722018</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>38.94499958801495</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>280.8779291636631</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>94.79784565130403</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9008,25 +9008,25 @@
         <v>47.46865333835867</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>200.567776456836</v>
       </c>
       <c r="L15" t="n">
-        <v>202.4061814790426</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299484</v>
       </c>
       <c r="N15" t="n">
-        <v>576.5190218272251</v>
+        <v>576.5190218272252</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>38.63182247283564</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9166,7 +9166,7 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K17" t="n">
-        <v>318.1298588292955</v>
+        <v>103.9952727729085</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9184,7 +9184,7 @@
         <v>29.74757246641079</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.8749018014886</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9248,19 +9248,19 @@
         <v>16.98927198950145</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>17.20070254614522</v>
       </c>
       <c r="M18" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299484</v>
       </c>
       <c r="N18" t="n">
-        <v>525.6288747107914</v>
+        <v>576.5190218272252</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>53.76944533722018</v>
+        <v>130.4705214030648</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>439.7004014023668</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>29.74757246641079</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>61.8749018014886</v>
@@ -9482,22 +9482,22 @@
         <v>47.46865333835867</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>268.6586261194147</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299484</v>
       </c>
       <c r="N21" t="n">
-        <v>433.2819901677086</v>
+        <v>576.5190218272252</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>38.63182247283564</v>
@@ -9640,7 +9640,7 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K23" t="n">
-        <v>318.1298588292955</v>
+        <v>38.94499958801495</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9652,10 +9652,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>385.6343467263333</v>
       </c>
       <c r="P23" t="n">
-        <v>29.74757246641079</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
         <v>61.8749018014886</v>
@@ -9722,10 +9722,10 @@
         <v>16.98927198950145</v>
       </c>
       <c r="L24" t="n">
-        <v>17.20070254614546</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N24" t="n">
         <v>576.5190218272251</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>183.5785044673345</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>38.63182247283564</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9877,7 +9877,7 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K26" t="n">
-        <v>318.1298588292955</v>
+        <v>318.1298588292959</v>
       </c>
       <c r="L26" t="n">
         <v>542.9595789155856</v>
@@ -9959,19 +9959,19 @@
         <v>16.98927198950145</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>251.6693541299133</v>
       </c>
       <c r="M27" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299484</v>
       </c>
       <c r="N27" t="n">
-        <v>576.5190218272249</v>
+        <v>576.5190218272252</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>183.5785044673345</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>38.63182247283564</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>53.76944533722018</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>318.1298588292959</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>542.9595789155856</v>
+        <v>469.4210924000573</v>
       </c>
       <c r="M29" t="n">
-        <v>584.3675935406823</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>568.5510017355793</v>
@@ -10129,7 +10129,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>29.74757246641079</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
         <v>61.8749018014886</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>47.46865333835867</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10199,10 +10199,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>374.0451332819711</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>257.5954406777982</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10351,25 +10351,25 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>38.94499958801495</v>
       </c>
       <c r="L32" t="n">
-        <v>542.9595789155856</v>
+        <v>433.55369000035</v>
       </c>
       <c r="M32" t="n">
-        <v>371.7450562458877</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N32" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O32" t="n">
-        <v>1.678261210241374</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>61.8749018014886</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10430,13 +10430,13 @@
         <v>47.46865333835867</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>16.98927198950145</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>514.0872119330108</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N33" t="n">
         <v>576.5190218272251</v>
@@ -10445,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>183.5785044673345</v>
       </c>
       <c r="Q33" t="n">
         <v>38.63182247283564</v>
@@ -10588,13 +10588,13 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K35" t="n">
-        <v>38.94499958801495</v>
+        <v>318.1298588292959</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>474.9617046254463</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10603,7 +10603,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>29.74757246641079</v>
       </c>
       <c r="Q35" t="n">
         <v>61.8749018014886</v>
@@ -10673,19 +10673,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N36" t="n">
         <v>576.5190218272251</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>47.12926871139649</v>
       </c>
       <c r="P36" t="n">
-        <v>183.5785044673345</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.63182247283564</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>53.76944533722018</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10837,13 +10837,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>391.7810581283504</v>
+        <v>11.59031768548754</v>
       </c>
       <c r="P38" t="n">
         <v>29.74757246641079</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.8749018014886</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,25 +10901,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>47.46865333835867</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>16.98927198950145</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>492.0640922615659</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>576.5190218272251</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>183.5785044673345</v>
       </c>
       <c r="Q39" t="n">
         <v>38.63182247283564</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>53.76944533722018</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>318.1298588292955</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11074,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415689</v>
+        <v>225.724903741875</v>
       </c>
       <c r="P41" t="n">
         <v>29.74757246641079</v>
@@ -11141,16 +11141,16 @@
         <v>47.46865333835867</v>
       </c>
       <c r="K42" t="n">
-        <v>16.98927198950145</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>589.2333939299483</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N42" t="n">
-        <v>346.0959270626411</v>
+        <v>501.3728398302875</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11299,10 +11299,10 @@
         <v>53.76944533722018</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>38.94499958801495</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>433.55369000035</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11311,10 +11311,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>391.7810581283509</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>29.74757246641079</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>61.8749018014886</v>
@@ -11381,19 +11381,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>589.2333939299484</v>
+        <v>589.2333939299485</v>
       </c>
       <c r="N45" t="n">
-        <v>576.5190218272252</v>
+        <v>576.5190218272251</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>338.8554172349809</v>
+        <v>368.7839834002321</v>
       </c>
       <c r="Q45" t="n">
         <v>38.63182247283564</v>
@@ -22555,19 +22555,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>349.9788103078739</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>81.51319700115391</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>57.6063699920434</v>
+        <v>3.603796666581246</v>
       </c>
     </row>
     <row r="4">
@@ -22713,7 +22713,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>138.9157720710907</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339675</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.17280626031476</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22792,7 +22792,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -22801,7 +22801,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>196.099353370166</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.46680454673458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>174.6053794794094</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23029,19 +23029,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>28.72863799903087</v>
       </c>
       <c r="X8" t="n">
-        <v>273.0394687401578</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,10 +23153,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>208.8778621094304</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23193,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,13 +23232,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>246.5547993719575</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>184.1896164250828</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H11" t="n">
-        <v>318.2313998568816</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>128.6952548893941</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>160.2986977425834</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>100.3359358017792</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.10884458728047</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7372916523364</v>
       </c>
       <c r="H13" t="n">
         <v>153.3933934536531</v>
       </c>
       <c r="I13" t="n">
-        <v>127.9273557308777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>24.58322001007976</v>
@@ -23466,19 +23466,19 @@
         <v>125.8478230734767</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>202.9764972519466</v>
       </c>
       <c r="T13" t="n">
-        <v>133.3830926294062</v>
+        <v>228.7396003621027</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2914320525097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>152.0214051804893</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.111819281983</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.2485119289662</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -23658,19 +23658,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>89.04180663824215</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7372916523364</v>
+        <v>28.62828253403265</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.3933934536531</v>
       </c>
       <c r="I16" t="n">
         <v>127.9273557308777</v>
@@ -23706,7 +23706,7 @@
         <v>202.9764972519466</v>
       </c>
       <c r="T16" t="n">
-        <v>228.7396003621027</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>353.0223598330205</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.843309253108</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2485119289662</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23797,7 +23797,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>277.1615882147026</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>13.43216512221113</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>42.23519034123582</v>
       </c>
       <c r="G19" t="n">
         <v>166.7372916523364</v>
@@ -23943,13 +23943,13 @@
         <v>202.9764972519466</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.7396003621027</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>269.2006525836881</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>160.2986977425834</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2485119289662</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>345.8364937081487</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.3857048369255</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7372916523364</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.3933934536531</v>
@@ -24183,19 +24183,19 @@
         <v>228.7396003621027</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2914320525097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.00549982071703</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>349.3301961927061</v>
       </c>
       <c r="G23" t="n">
-        <v>193.7744403145411</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>98.68966538692287</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.7372916523364</v>
@@ -24384,7 +24384,7 @@
         <v>153.3933934536531</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>127.9273557308777</v>
       </c>
       <c r="J25" t="n">
         <v>24.58322001007976</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>120.2192813803332</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>330.6616553147101</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>318.2313998568816</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6952548893941</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>160.2986977425834</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.2485119289662</v>
@@ -24505,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>5.062329510464963</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>120.6245202467571</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7372916523364</v>
+        <v>76.16656862209175</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.3933934536531</v>
       </c>
       <c r="I28" t="n">
         <v>127.9273557308777</v>
@@ -24651,16 +24651,16 @@
         <v>125.8478230734767</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.9764972519466</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.7396003621027</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2914320525097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>217.30169396853</v>
       </c>
       <c r="U29" t="n">
-        <v>204.8464205249522</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>276.116663668131</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24840,13 +24840,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.82051615727006</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>103.1012986993393</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>180.5855919127578</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.843309253108</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.2313998568816</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6952548893941</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>160.2986977425834</v>
@@ -24973,19 +24973,19 @@
         <v>217.30169396853</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2485119289662</v>
+        <v>238.1724104286768</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>86.13733728088346</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.7372916523364</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.90613720281723</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25162,16 +25162,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I35" t="n">
         <v>128.6952548893941</v>
@@ -25207,19 +25207,19 @@
         <v>160.2986977425834</v>
       </c>
       <c r="T35" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>45.25236672317502</v>
+        <v>64.5444051578333</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>104.2379240500637</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.9273557308777</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>24.58322001007976</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>117.0401516810229</v>
+        <v>125.8478230734767</v>
       </c>
       <c r="S37" t="n">
         <v>202.9764972519466</v>
@@ -25368,13 +25368,13 @@
         <v>228.7396003621027</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2914320525097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -25399,19 +25399,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>390.9957533942405</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>291.4354381909401</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>128.6952548893941</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>160.2986977425834</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.30169396853</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2485119289662</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>61.9610800337077</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -25557,10 +25557,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76826601304951</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.7372916523364</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>342.2997634591071</v>
       </c>
       <c r="H41" t="n">
-        <v>149.063352862137</v>
+        <v>318.2313998568816</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>128.6952548893941</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>160.2986977425834</v>
       </c>
       <c r="T41" t="n">
         <v>217.30169396853</v>
@@ -25693,10 +25693,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25803,10 +25803,10 @@
         <v>166.7372916523364</v>
       </c>
       <c r="H43" t="n">
-        <v>141.3325465103012</v>
+        <v>153.3933934536531</v>
       </c>
       <c r="I43" t="n">
-        <v>127.9273557308777</v>
+        <v>63.10884458728047</v>
       </c>
       <c r="J43" t="n">
         <v>24.58322001007976</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>125.8478230734767</v>
       </c>
       <c r="S43" t="n">
         <v>202.9764972519466</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,25 +25867,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>120.0985743325014</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.843309253108</v>
       </c>
       <c r="H44" t="n">
-        <v>183.4927373091036</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6952548893941</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.65680409986936</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>160.2986977425834</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.30169396853</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2485119289662</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -26040,7 +26040,7 @@
         <v>166.7372916523364</v>
       </c>
       <c r="H46" t="n">
-        <v>153.3933934536531</v>
+        <v>148.1159203804807</v>
       </c>
       <c r="I46" t="n">
         <v>127.9273557308777</v>
@@ -26073,16 +26073,16 @@
         <v>125.8478230734767</v>
       </c>
       <c r="S46" t="n">
-        <v>64.86748813364287</v>
+        <v>202.9764972519466</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.7396003621027</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2914320525097</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653985.6806545749</v>
+        <v>653985.6806545747</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653985.6806545747</v>
+        <v>653985.6806545749</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>653985.6806545749</v>
+        <v>653985.6806545748</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738906.869477617</v>
+        <v>738906.8694776171</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738906.8694776169</v>
+        <v>738906.8694776171</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738906.8694776171</v>
+        <v>738906.8694776172</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738906.869477617</v>
+        <v>738906.8694776171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738906.8694776171</v>
+        <v>738906.8694776172</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738906.8694776169</v>
+        <v>738906.8694776172</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738906.8694776169</v>
+        <v>738906.869477617</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738906.8694776171</v>
+        <v>738906.8694776172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738906.8694776169</v>
+        <v>738906.8694776171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738906.8694776171</v>
+        <v>738906.8694776172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738906.8694776171</v>
+        <v>738906.8694776169</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188207.2044394289</v>
+        <v>188207.2044394288</v>
       </c>
       <c r="C2" t="n">
         <v>188207.2044394288</v>
       </c>
       <c r="D2" t="n">
-        <v>188207.2044394289</v>
+        <v>188207.2044394288</v>
       </c>
       <c r="E2" t="n">
         <v>219850.1554467709</v>
@@ -26331,7 +26331,7 @@
         <v>219850.1554467709</v>
       </c>
       <c r="H2" t="n">
-        <v>219850.1554467708</v>
+        <v>219850.1554467709</v>
       </c>
       <c r="I2" t="n">
         <v>219850.1554467709</v>
@@ -26355,7 +26355,7 @@
         <v>219850.1554467709</v>
       </c>
       <c r="P2" t="n">
-        <v>219850.1554467709</v>
+        <v>219850.1554467708</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248876.8380839876</v>
+        <v>248876.8380839877</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>24303.06227385712</v>
+        <v>24303.06227385718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>67622.02877680163</v>
       </c>
       <c r="C4" t="n">
-        <v>67622.02877680163</v>
+        <v>67622.02877680164</v>
       </c>
       <c r="D4" t="n">
-        <v>67622.02877680163</v>
+        <v>67622.02877680164</v>
       </c>
       <c r="E4" t="n">
-        <v>53977.30511138252</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="F4" t="n">
         <v>53977.30511138253</v>
       </c>
       <c r="G4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138255</v>
       </c>
       <c r="H4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="I4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="J4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="K4" t="n">
         <v>53977.30511138254</v>
@@ -26450,13 +26450,13 @@
         <v>53977.30511138254</v>
       </c>
       <c r="M4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="N4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138254</v>
       </c>
       <c r="O4" t="n">
-        <v>53977.30511138253</v>
+        <v>53977.30511138255</v>
       </c>
       <c r="P4" t="n">
         <v>53977.30511138254</v>
@@ -26478,22 +26478,22 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="F5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="G5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="H5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="I5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="J5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="K5" t="n">
         <v>43830.87739885949</v>
@@ -26502,13 +26502,13 @@
         <v>43830.87739885949</v>
       </c>
       <c r="M5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="N5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="O5" t="n">
-        <v>43830.87739885948</v>
+        <v>43830.87739885949</v>
       </c>
       <c r="P5" t="n">
         <v>43830.87739885949</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121022.0436918114</v>
+        <v>-129141.6331783174</v>
       </c>
       <c r="C6" t="n">
-        <v>55019.1410257158</v>
+        <v>46899.55153920996</v>
       </c>
       <c r="D6" t="n">
-        <v>55019.14102571586</v>
+        <v>46899.55153920999</v>
       </c>
       <c r="E6" t="n">
-        <v>-126834.8651474587</v>
+        <v>-133093.1045747093</v>
       </c>
       <c r="F6" t="n">
-        <v>122041.9729365288</v>
+        <v>115783.7335092784</v>
       </c>
       <c r="G6" t="n">
-        <v>122041.9729365289</v>
+        <v>115783.7335092785</v>
       </c>
       <c r="H6" t="n">
-        <v>122041.9729365288</v>
+        <v>115783.7335092785</v>
       </c>
       <c r="I6" t="n">
-        <v>122041.9729365289</v>
+        <v>115783.7335092785</v>
       </c>
       <c r="J6" t="n">
-        <v>-15400.45785524824</v>
+        <v>-21658.69728249862</v>
       </c>
       <c r="K6" t="n">
-        <v>122041.9729365288</v>
+        <v>115783.7335092785</v>
       </c>
       <c r="L6" t="n">
-        <v>122041.9729365289</v>
+        <v>115783.7335092784</v>
       </c>
       <c r="M6" t="n">
-        <v>97738.91066267175</v>
+        <v>91480.67123542129</v>
       </c>
       <c r="N6" t="n">
-        <v>122041.9729365289</v>
+        <v>115783.7335092785</v>
       </c>
       <c r="O6" t="n">
-        <v>122041.9729365289</v>
+        <v>115783.7335092784</v>
       </c>
       <c r="P6" t="n">
-        <v>122041.9729365288</v>
+        <v>115783.7335092784</v>
       </c>
     </row>
   </sheetData>
@@ -26798,22 +26798,22 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="F4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="G4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="H4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="I4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="J4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="K4" t="n">
         <v>622.8259628332523</v>
@@ -26822,13 +26822,13 @@
         <v>622.8259628332523</v>
       </c>
       <c r="M4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O4" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="P4" t="n">
         <v>622.8259628332523</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.52276156826196</v>
+        <v>97.52276156826207</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>97.52276156826183</v>
+        <v>97.52276156826206</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>97.52276156826196</v>
+        <v>97.52276156826207</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>212.9515651312839</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
@@ -34792,7 +34792,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>178.7333419807071</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34953,7 +34953,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35017,16 +35017,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>436.7100974846449</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>148.5819430157097</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35263,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>166.0561543864757</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>382.4440367544992</v>
       </c>
       <c r="L11" t="n">
-        <v>524.9304000525797</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5.930395899734066</v>
+        <v>590.2979894404164</v>
       </c>
       <c r="N11" t="n">
         <v>578.3639428004049</v>
@@ -35427,10 +35427,10 @@
         <v>493.3619744313276</v>
       </c>
       <c r="P11" t="n">
-        <v>315.0522616409875</v>
+        <v>388.5907481565166</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.08047438284469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>116.4496926041728</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>326.8155361268508</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>497.2655131573814</v>
       </c>
       <c r="M12" t="n">
-        <v>525.6566611648698</v>
+        <v>392.4028680686686</v>
       </c>
       <c r="N12" t="n">
-        <v>46.30694100602722</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O12" t="n">
         <v>536.1468762557829</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>166.0561543864757</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>382.4440367544992</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>524.9304000525797</v>
       </c>
       <c r="M14" t="n">
-        <v>5.930395899734066</v>
+        <v>590.2979894404164</v>
       </c>
       <c r="N14" t="n">
-        <v>290.6908702284886</v>
+        <v>578.3639428004049</v>
       </c>
       <c r="O14" t="n">
         <v>493.3619744313276</v>
       </c>
       <c r="P14" t="n">
-        <v>388.5907481565166</v>
+        <v>65.05027318489324</v>
       </c>
       <c r="Q14" t="n">
         <v>214.1345860563875</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>326.8155361268508</v>
+        <v>183.5785044673345</v>
       </c>
       <c r="L15" t="n">
-        <v>217.5792457419271</v>
+        <v>497.2655131573814</v>
       </c>
       <c r="M15" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N15" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O15" t="n">
-        <v>24.12586119603455</v>
+        <v>536.1468762557829</v>
       </c>
       <c r="P15" t="n">
-        <v>417.4979456509241</v>
+        <v>3.496346419005775</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.4686515837682</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>279.1848592412805</v>
+        <v>65.05027318489358</v>
       </c>
       <c r="L17" t="n">
         <v>524.9304000525797</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>214.1345860563875</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>497.2655131573814</v>
+        <v>32.37376680902968</v>
       </c>
       <c r="M18" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N18" t="n">
-        <v>571.9358157168185</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O18" t="n">
         <v>536.1468762557829</v>
       </c>
       <c r="P18" t="n">
-        <v>3.496346419005775</v>
+        <v>417.4979456509241</v>
       </c>
       <c r="Q18" t="n">
         <v>234.4686515837682</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>76.70107606584466</v>
       </c>
       <c r="K20" t="n">
         <v>382.4440367544992</v>
       </c>
       <c r="L20" t="n">
-        <v>421.671222539361</v>
+        <v>524.9304000525797</v>
       </c>
       <c r="M20" t="n">
         <v>590.2979894404164</v>
       </c>
       <c r="N20" t="n">
-        <v>578.3639428004049</v>
+        <v>9.81294106482548</v>
       </c>
       <c r="O20" t="n">
         <v>493.3619744313276</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>388.5907481565166</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>326.8155361268508</v>
+        <v>251.6693541299133</v>
       </c>
       <c r="L21" t="n">
-        <v>497.2655131573814</v>
+        <v>15.17306426288447</v>
       </c>
       <c r="M21" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N21" t="n">
-        <v>479.5889311737359</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O21" t="n">
         <v>536.1468762557829</v>
       </c>
       <c r="P21" t="n">
-        <v>3.496346419005775</v>
+        <v>417.4979456509241</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>279.1848592412805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>524.9304000525797</v>
@@ -36372,10 +36372,10 @@
         <v>578.3639428004049</v>
       </c>
       <c r="O23" t="n">
-        <v>493.3619744313276</v>
+        <v>383.9560855160919</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>388.5907481565166</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>32.37376680902992</v>
+        <v>497.2655131573814</v>
       </c>
       <c r="M24" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N24" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O24" t="n">
         <v>536.1468762557829</v>
       </c>
       <c r="P24" t="n">
-        <v>417.4979456509241</v>
+        <v>187.0748508863402</v>
       </c>
       <c r="Q24" t="n">
-        <v>234.4686515837682</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>279.1848592412805</v>
+        <v>279.184859241281</v>
       </c>
       <c r="L26" t="n">
         <v>524.9304000525797</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>497.2655131573814</v>
+        <v>266.8424183927978</v>
       </c>
       <c r="M27" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N27" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O27" t="n">
         <v>536.1468762557829</v>
       </c>
       <c r="P27" t="n">
-        <v>187.0748508863402</v>
+        <v>417.4979456509241</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>166.0561543864757</v>
       </c>
       <c r="K29" t="n">
-        <v>279.184859241281</v>
+        <v>382.4440367544992</v>
       </c>
       <c r="L29" t="n">
-        <v>524.9304000525797</v>
+        <v>451.3919135370514</v>
       </c>
       <c r="M29" t="n">
-        <v>590.2979894404164</v>
+        <v>5.930395899734066</v>
       </c>
       <c r="N29" t="n">
         <v>578.3639428004049</v>
@@ -36849,7 +36849,7 @@
         <v>493.3619744313276</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>388.5907481565166</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>116.4496926041728</v>
       </c>
       <c r="K30" t="n">
         <v>326.8155361268508</v>
@@ -36919,10 +36919,10 @@
         <v>497.2655131573814</v>
       </c>
       <c r="M30" t="n">
-        <v>407.637702185275</v>
+        <v>33.59256890330386</v>
       </c>
       <c r="N30" t="n">
-        <v>46.30694100602722</v>
+        <v>303.9023816838254</v>
       </c>
       <c r="O30" t="n">
         <v>536.1468762557829</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>382.4440367544992</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>524.9304000525797</v>
+        <v>415.5245111373441</v>
       </c>
       <c r="M32" t="n">
-        <v>377.6754521456217</v>
+        <v>590.2979894404164</v>
       </c>
       <c r="N32" t="n">
         <v>578.3639428004049</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>493.3619744313276</v>
       </c>
       <c r="P32" t="n">
         <v>388.5907481565166</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1345860563875</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>326.8155361268508</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>15.17306426288447</v>
+        <v>497.2655131573814</v>
       </c>
       <c r="M33" t="n">
-        <v>547.6797808363148</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N33" t="n">
         <v>622.8259628332523</v>
@@ -37165,7 +37165,7 @@
         <v>536.1468762557829</v>
       </c>
       <c r="P33" t="n">
-        <v>417.4979456509241</v>
+        <v>187.0748508863402</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>279.184859241281</v>
       </c>
       <c r="L35" t="n">
         <v>524.9304000525797</v>
       </c>
       <c r="M35" t="n">
-        <v>480.8921005251804</v>
+        <v>590.2979894404164</v>
       </c>
       <c r="N35" t="n">
         <v>578.3639428004049</v>
@@ -37323,7 +37323,7 @@
         <v>493.3619744313276</v>
       </c>
       <c r="P35" t="n">
-        <v>388.5907481565166</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>497.2655131573814</v>
       </c>
       <c r="M36" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N36" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O36" t="n">
-        <v>536.1468762557829</v>
+        <v>71.25512990743104</v>
       </c>
       <c r="P36" t="n">
-        <v>187.0748508863402</v>
+        <v>417.4979456509241</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>234.4686515837682</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.0561543864757</v>
       </c>
       <c r="K38" t="n">
         <v>382.4440367544992</v>
@@ -37557,13 +37557,13 @@
         <v>578.3639428004049</v>
       </c>
       <c r="O38" t="n">
-        <v>390.1027969181091</v>
+        <v>9.912056475246168</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>214.1345860563875</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>116.4496926041728</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>326.8155361268508</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>497.2655131573814</v>
       </c>
       <c r="M39" t="n">
-        <v>525.6566611648698</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N39" t="n">
-        <v>46.30694100602722</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="O39" t="n">
         <v>536.1468762557829</v>
       </c>
       <c r="P39" t="n">
-        <v>417.4979456509241</v>
+        <v>187.0748508863402</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.0561543864757</v>
       </c>
       <c r="K41" t="n">
-        <v>279.1848592412805</v>
+        <v>382.4440367544992</v>
       </c>
       <c r="L41" t="n">
         <v>524.9304000525797</v>
@@ -37794,7 +37794,7 @@
         <v>578.3639428004049</v>
       </c>
       <c r="O41" t="n">
-        <v>493.3619744313276</v>
+        <v>224.0466425316336</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>326.8155361268508</v>
       </c>
       <c r="L42" t="n">
-        <v>497.2655131573814</v>
+        <v>15.17306426288447</v>
       </c>
       <c r="M42" t="n">
-        <v>622.8259628332522</v>
+        <v>622.8259628332523</v>
       </c>
       <c r="N42" t="n">
-        <v>392.4028680686683</v>
+        <v>547.6797808363148</v>
       </c>
       <c r="O42" t="n">
         <v>536.1468762557829</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>382.4440367544992</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>524.9304000525797</v>
+        <v>415.5245111373441</v>
       </c>
       <c r="M44" t="n">
         <v>590.2979894404164</v>
@@ -38031,10 +38031,10 @@
         <v>578.3639428004049</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1027969181096</v>
+        <v>493.3619744313276</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>388.5907481565166</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>326.8155361268508</v>
       </c>
       <c r="L45" t="n">
-        <v>15.17306426288447</v>
+        <v>497.2655131573814</v>
       </c>
       <c r="M45" t="n">
         <v>622.8259628332523</v>
@@ -38110,10 +38110,10 @@
         <v>622.8259628332523</v>
       </c>
       <c r="O45" t="n">
-        <v>536.1468762557829</v>
+        <v>24.12586119603455</v>
       </c>
       <c r="P45" t="n">
-        <v>342.3517636539867</v>
+        <v>372.2803298192379</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
